--- a/harana/datasets/BPSFH/23/chords.xlsx
+++ b/harana/datasets/BPSFH/23/chords.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Dataset\BPS Dataset\23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoyu/Desktop/video_music/harana/harana/datasets/BPSFH/23/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1042707-AB36-4847-AED7-7DFC17F19A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="252">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bVI6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,24 +1025,30 @@
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/-2</t>
+  </si>
+  <si>
+    <t>V6/bII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1109,7 +1112,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1386,21 +1389,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G122" sqref="A122:G122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>-1.5</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>18</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>22.5</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>39</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>48</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>51</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>54</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>60</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>63</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>66</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>88.5</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>90</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>94.5</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>114</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>123</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>126</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>135</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>138</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>144</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>150</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>156</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>168</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>174</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>180</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>183</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>186</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>189</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>192</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>213</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>216</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>220.5</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>222</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>225</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>228</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>237</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>240</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>246</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>249</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>252</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>258</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>300</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>306</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>312</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>316.5</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>322.5</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>324</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>330</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>336</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>340.5</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>346.5</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>348</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>349.5</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>351</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>352.5</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>354</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>357</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>360</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>361.5</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>363</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>364.5</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>366</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>367.5</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>369</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>370.5</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>372</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>373.5</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>375</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>376.5</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>378</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>388.5</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>394.5</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>408</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>411</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>414</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>420</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>423</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>426</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>432</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>435</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>438</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>439.5</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>442.5</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>444</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>447</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>450</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>453</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>456</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>457.5</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>460.5</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>462</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>465</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>466.5</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>480</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>492</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>504</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>516</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>528</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>540</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>541.5</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>543</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>544.5</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>546</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>547.5</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>549</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>550.5</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>552</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>558</v>
       </c>
@@ -3973,10 +3976,10 @@
         <v>3</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>564</v>
       </c>
@@ -3996,10 +3999,10 @@
         <v>1</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>570</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>576</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>582</v>
       </c>
@@ -4065,10 +4068,10 @@
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>588</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>594</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>600</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>603</v>
       </c>
@@ -4147,8 +4150,8 @@
       <c r="C120" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D120" s="1">
-        <v>-6</v>
+      <c r="D120" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>78</v>
@@ -4157,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>606</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>609</v>
       </c>
@@ -4193,8 +4196,8 @@
       <c r="C122" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D122" s="1">
-        <v>-6</v>
+      <c r="D122" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>78</v>
@@ -4203,10 +4206,10 @@
         <v>1</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>612</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>615</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>618</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>621</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>624</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>648</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>657</v>
       </c>
@@ -4364,10 +4367,10 @@
         <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>660</v>
       </c>
@@ -4387,10 +4390,10 @@
         <v>1</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>664.5</v>
       </c>
@@ -4410,10 +4413,10 @@
         <v>3</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>666</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>669</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>672</v>
       </c>
@@ -4467,22 +4470,22 @@
         <v>676.5</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" s="1">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D134" s="1">
-        <v>5</v>
-      </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F134" s="1">
-        <v>1</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>676.5</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>681</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -4502,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>681</v>
       </c>
@@ -4513,7 +4516,7 @@
         <v>684</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
@@ -4525,10 +4528,10 @@
         <v>2</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>684</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>688.5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -4548,10 +4551,10 @@
         <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>688.5</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>690</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D138" s="1">
         <v>4</v>
@@ -4571,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>690</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>693</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
@@ -4594,10 +4597,10 @@
         <v>2</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>693</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>696</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D140" s="1">
         <v>5</v>
@@ -4620,7 +4623,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>696</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>705</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
@@ -4640,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>705</v>
       </c>
@@ -4651,7 +4654,7 @@
         <v>708</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D142" s="1">
         <v>5</v>
@@ -4663,10 +4666,10 @@
         <v>2</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>708</v>
       </c>
@@ -4674,22 +4677,22 @@
         <v>714</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D143" s="1">
         <v>5</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F143" s="1">
-        <v>1</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>714</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>720</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
@@ -4709,10 +4712,10 @@
         <v>0</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>720</v>
       </c>
@@ -4720,22 +4723,22 @@
         <v>726</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D145" s="1">
         <v>5</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F145" s="1">
-        <v>1</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>726</v>
       </c>
@@ -4743,13 +4746,13 @@
         <v>732</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D146" s="1">
-        <v>1</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F146" s="1">
         <v>0</v>
@@ -4758,7 +4761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>732</v>
       </c>
@@ -4766,22 +4769,22 @@
         <v>786</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D147" s="1">
         <v>7</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F147" s="1">
         <v>3</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>786</v>
       </c>
@@ -4789,22 +4792,22 @@
         <v>787.5</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D148" s="1">
+        <v>5</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D148" s="1">
-        <v>5</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F148" s="1">
-        <v>0</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>787.5</v>
       </c>
@@ -4812,22 +4815,22 @@
         <v>789</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D149" s="1">
         <v>7</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F149" s="1">
         <v>3</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>789</v>
       </c>
@@ -4835,22 +4838,22 @@
         <v>790.5</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D150" s="1">
-        <v>5</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F150" s="1">
-        <v>0</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>790.5</v>
       </c>
@@ -4858,22 +4861,22 @@
         <v>792</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D151" s="1">
         <v>7</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F151" s="1">
         <v>3</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>792</v>
       </c>
@@ -4881,22 +4884,22 @@
         <v>793.5</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D152" s="1">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D152" s="1">
-        <v>5</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F152" s="1">
-        <v>0</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>793.5</v>
       </c>
@@ -4904,22 +4907,22 @@
         <v>795</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D153" s="1">
         <v>7</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F153" s="1">
         <v>3</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>795</v>
       </c>
@@ -4927,22 +4930,22 @@
         <v>796.5</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D154" s="1">
+        <v>5</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D154" s="1">
-        <v>5</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F154" s="1">
-        <v>0</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>796.5</v>
       </c>
@@ -4950,22 +4953,22 @@
         <v>798</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D155" s="1">
         <v>7</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F155" s="1">
         <v>3</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>798</v>
       </c>
@@ -4973,22 +4976,22 @@
         <v>808.5</v>
       </c>
       <c r="C156" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D156" s="4">
+        <v>5</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D156" s="4">
-        <v>5</v>
-      </c>
-      <c r="E156" s="4" t="s">
+      <c r="F156" s="4">
+        <v>0</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F156" s="4">
-        <v>0</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>808.5</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>822</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -5008,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>822</v>
       </c>
@@ -5019,22 +5022,22 @@
         <v>825</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D158" s="1">
         <v>5</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F158" s="1">
-        <v>0</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>825</v>
       </c>
@@ -5042,22 +5045,22 @@
         <v>828</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F159" s="1">
         <v>2</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>828</v>
       </c>
@@ -5065,22 +5068,22 @@
         <v>832.5</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D160" s="1">
         <v>5</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F160" s="1">
-        <v>0</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>832.5</v>
       </c>
@@ -5088,13 +5091,13 @@
         <v>846</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D161" s="1">
-        <v>1</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="F161" s="1">
         <v>2</v>
@@ -5103,7 +5106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>846</v>
       </c>
@@ -5111,22 +5114,22 @@
         <v>849</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D162" s="1">
         <v>5</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F162" s="1">
-        <v>0</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>849</v>
       </c>
@@ -5134,22 +5137,22 @@
         <v>852</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F163" s="1">
         <v>2</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>852</v>
       </c>
@@ -5157,22 +5160,22 @@
         <v>852.5</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D164" s="1">
         <v>5</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F164" s="1">
-        <v>0</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>852.5</v>
       </c>
@@ -5180,22 +5183,22 @@
         <v>858</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>858</v>
       </c>
@@ -5203,22 +5206,22 @@
         <v>861</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D166" s="1">
         <v>5</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F166" s="1">
-        <v>1</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>861</v>
       </c>
@@ -5226,22 +5229,22 @@
         <v>864</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F167" s="1">
-        <v>1</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>864</v>
       </c>
@@ -5249,22 +5252,22 @@
         <v>870</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D168" s="1">
         <v>5</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F168" s="1">
-        <v>1</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>870</v>
       </c>
@@ -5272,22 +5275,22 @@
         <v>873</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D169" s="1">
+        <v>5</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D169" s="1">
-        <v>5</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F169" s="1">
         <v>2</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>873</v>
       </c>
@@ -5295,22 +5298,22 @@
         <v>876</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F170" s="1">
-        <v>1</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>876</v>
       </c>
@@ -5318,22 +5321,22 @@
         <v>882</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D171" s="1">
+        <v>5</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D171" s="1">
-        <v>5</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F171" s="1">
         <v>2</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>882</v>
       </c>
@@ -5341,22 +5344,22 @@
         <v>897</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D172" s="1">
+        <v>5</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D172" s="1">
-        <v>5</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F172" s="1">
-        <v>0</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>897</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>898.5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D173" s="1">
         <v>5</v>
@@ -5376,10 +5379,10 @@
         <v>2</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>898.5</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>900</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D174" s="1">
         <v>6</v>
@@ -5399,10 +5402,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>900</v>
       </c>
@@ -5410,22 +5413,22 @@
         <v>904.5</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D175" s="1">
         <v>5</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F175" s="1">
         <v>0</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>904.5</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>924</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
@@ -5445,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>924</v>
       </c>
@@ -5456,22 +5459,22 @@
         <v>933</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D177" s="1">
         <v>5</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F177" s="1">
-        <v>1</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>933</v>
       </c>
@@ -5479,13 +5482,13 @@
         <v>936</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F178" s="1">
         <v>2</v>
@@ -5494,7 +5497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>936</v>
       </c>
@@ -5502,22 +5505,22 @@
         <v>945</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D179" s="1">
         <v>5</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F179" s="1">
-        <v>1</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>945</v>
       </c>
@@ -5525,22 +5528,22 @@
         <v>948</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D180" s="1">
         <v>6</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F180" s="1">
-        <v>1</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>948</v>
       </c>
@@ -5548,22 +5551,22 @@
         <v>957</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D181" s="1">
         <v>7</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F181" s="1">
-        <v>1</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>957</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>960</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -5583,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>960</v>
       </c>
@@ -5594,22 +5597,22 @@
         <v>969</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D183" s="1">
         <v>7</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F183" s="1">
         <v>2</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>969</v>
       </c>
@@ -5617,22 +5620,22 @@
         <v>972</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F184" s="1">
-        <v>0</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>972</v>
       </c>
@@ -5640,22 +5643,22 @@
         <v>978</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D185" s="1">
         <v>5</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F185" s="1">
-        <v>0</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>978</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>984</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
@@ -5675,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>984</v>
       </c>
@@ -5686,22 +5689,22 @@
         <v>990</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D187" s="1">
         <v>6</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F187" s="1">
+        <v>1</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F187" s="1">
-        <v>1</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>990</v>
       </c>
@@ -5709,22 +5712,22 @@
         <v>996</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D188" s="1">
         <v>5</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F188" s="1">
-        <v>1</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>996</v>
       </c>
@@ -5732,22 +5735,22 @@
         <v>1002</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D189" s="1">
         <v>5</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F189" s="1">
         <v>2</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>1002</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>1008</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -5767,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>1008</v>
       </c>
@@ -5778,22 +5781,22 @@
         <v>1014</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D191" s="1">
         <v>6</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F191" s="1">
-        <v>1</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>1014</v>
       </c>
@@ -5801,22 +5804,22 @@
         <v>1017</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D192" s="1">
         <v>5</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F192" s="1">
-        <v>1</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>1017</v>
       </c>
@@ -5824,22 +5827,22 @@
         <v>1020</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F193" s="1">
         <v>3</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>1020</v>
       </c>
@@ -5847,22 +5850,22 @@
         <v>1023</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="F194" s="1">
         <v>1</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>1023</v>
       </c>
@@ -5870,22 +5873,22 @@
         <v>1026</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D195" s="1">
         <v>4</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F195" s="1">
-        <v>1</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>1026</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>1032</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -5905,10 +5908,10 @@
         <v>2</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>1032</v>
       </c>
@@ -5916,22 +5919,22 @@
         <v>1038</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D197" s="1">
         <v>5</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F197" s="1">
         <v>0</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>1038</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>1054.5</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
@@ -5954,7 +5957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>1054.5</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>1056</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D199" s="1">
         <v>4</v>
@@ -5974,10 +5977,10 @@
         <v>0</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>1056</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>1059</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -5997,10 +6000,10 @@
         <v>2</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>1059</v>
       </c>
@@ -6008,22 +6011,22 @@
         <v>1062</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D201" s="1">
         <v>5</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F201" s="1">
         <v>0</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>1062</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>1071</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -6046,7 +6049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>1071</v>
       </c>
@@ -6054,22 +6057,22 @@
         <v>1074</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D203" s="1">
         <v>5</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F203" s="1">
         <v>2</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>1074</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>1080</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
@@ -6089,10 +6092,10 @@
         <v>1</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>1080</v>
       </c>
@@ -6100,22 +6103,22 @@
         <v>1086</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D205" s="1">
         <v>-2</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F205" s="1">
-        <v>1</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>1086</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>1092</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -6135,10 +6138,10 @@
         <v>2</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>1092</v>
       </c>
@@ -6146,22 +6149,22 @@
         <v>1130</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D207" s="1">
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F207" s="1">
         <v>0</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>1130</v>
       </c>
@@ -6169,22 +6172,22 @@
         <v>1140</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D208" s="1">
-        <v>1</v>
-      </c>
-      <c r="E208" s="1" t="s">
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F208" s="1">
-        <v>0</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>1140</v>
       </c>
@@ -6192,22 +6195,22 @@
         <v>1146</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D209" s="1">
         <v>6</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F209" s="1">
+        <v>1</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F209" s="1">
-        <v>1</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>1146</v>
       </c>
@@ -6215,22 +6218,22 @@
         <v>1150.5</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D210" s="1">
         <v>-2</v>
       </c>
       <c r="E210" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F210" s="1">
-        <v>0</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>1150.5</v>
       </c>
@@ -6238,22 +6241,22 @@
         <v>1156.5</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D211" s="1">
         <v>7</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F211" s="1">
         <v>1</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>1156.5</v>
       </c>
@@ -6261,22 +6264,22 @@
         <v>1158</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D212" s="1">
         <v>5</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F212" s="1">
         <v>0</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>1158</v>
       </c>
@@ -6284,22 +6287,22 @@
         <v>1164</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D213" s="1">
-        <v>1</v>
-      </c>
-      <c r="E213" s="1" t="s">
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F213" s="1">
-        <v>0</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>1164</v>
       </c>
@@ -6307,22 +6310,22 @@
         <v>1170</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D214" s="1">
         <v>6</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F214" s="1">
-        <v>1</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>1170</v>
       </c>
@@ -6330,22 +6333,22 @@
         <v>1174.5</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D215" s="1">
         <v>-2</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F215" s="1">
-        <v>0</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>1174.5</v>
       </c>
@@ -6353,22 +6356,22 @@
         <v>1180.5</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D216" s="1">
         <v>7</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F216" s="1">
         <v>1</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>1180.5</v>
       </c>
@@ -6376,22 +6379,22 @@
         <v>1182</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D217" s="1">
         <v>5</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F217" s="1">
         <v>0</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>1182</v>
       </c>
@@ -6399,22 +6402,22 @@
         <v>1183.5</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F218" s="1">
         <v>3</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>1183.5</v>
       </c>
@@ -6422,22 +6425,22 @@
         <v>1185</v>
       </c>
       <c r="C219" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D219" s="1">
+        <v>5</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D219" s="1">
-        <v>5</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F219" s="1">
-        <v>1</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>1185</v>
       </c>
@@ -6445,22 +6448,22 @@
         <v>1186.5</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D220" s="1">
         <v>2</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F220" s="1">
         <v>2</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>1186.5</v>
       </c>
@@ -6468,22 +6471,22 @@
         <v>1188</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D221" s="1">
         <v>5</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F221" s="1">
         <v>0</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>1188</v>
       </c>
@@ -6491,22 +6494,22 @@
         <v>1191</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E222" s="1" t="s">
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F222" s="1">
-        <v>0</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>1191</v>
       </c>
@@ -6514,22 +6517,22 @@
         <v>1194</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D223" s="1">
         <v>5</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F223" s="1">
         <v>0</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>1194</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>1195.5</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6549,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>1195.5</v>
       </c>
@@ -6560,7 +6563,7 @@
         <v>1197</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D225" s="1">
         <v>4</v>
@@ -6572,10 +6575,10 @@
         <v>0</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>1197</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>1198.5</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6595,10 +6598,10 @@
         <v>1</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>1198.5</v>
       </c>
@@ -6606,22 +6609,22 @@
         <v>1200</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D227" s="1">
         <v>5</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F227" s="1">
         <v>2</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>1200</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>1201.5</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -6641,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>1201.5</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>1203</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D229" s="1">
         <v>4</v>
@@ -6664,10 +6667,10 @@
         <v>0</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>1203</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>1204.5</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D230" s="1">
         <v>1</v>
@@ -6687,10 +6690,10 @@
         <v>1</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>1204.5</v>
       </c>
@@ -6698,22 +6701,22 @@
         <v>1206</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D231" s="1">
         <v>5</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F231" s="1">
         <v>2</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>1206</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>1207.5</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6733,10 +6736,10 @@
         <v>0</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>1207.5</v>
       </c>
@@ -6744,7 +6747,7 @@
         <v>1209</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D233" s="1">
         <v>4</v>
@@ -6756,10 +6759,10 @@
         <v>0</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>1209</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>1210.5</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6779,10 +6782,10 @@
         <v>1</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>1210.5</v>
       </c>
@@ -6790,22 +6793,22 @@
         <v>1212</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D235" s="1">
         <v>5</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F235" s="1">
         <v>2</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>1212</v>
       </c>
@@ -6813,7 +6816,7 @@
         <v>1230</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6825,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>1230</v>
       </c>
@@ -6836,22 +6839,22 @@
         <v>1242</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D237" s="1">
         <v>5</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F237" s="1">
         <v>3</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>1242</v>
       </c>
@@ -6859,13 +6862,13 @@
         <v>1248</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D238" s="1">
         <v>1</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F238" s="1">
         <v>1</v>
@@ -6874,7 +6877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>1248</v>
       </c>
@@ -6882,22 +6885,22 @@
         <v>1254</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D239" s="1">
         <v>5</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F239" s="1">
         <v>2</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>1254</v>
       </c>
@@ -6905,22 +6908,22 @@
         <v>1263</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D240" s="1">
-        <v>1</v>
-      </c>
-      <c r="E240" s="1" t="s">
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+      <c r="G240" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F240" s="1">
-        <v>0</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>1263</v>
       </c>
@@ -6928,22 +6931,22 @@
         <v>1266</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D241" s="1">
         <v>5</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F241" s="1">
         <v>2</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>1266</v>
       </c>
@@ -6951,13 +6954,13 @@
         <v>1272</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F242" s="1">
         <v>1</v>
@@ -6966,7 +6969,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>1272</v>
       </c>
@@ -6974,7 +6977,7 @@
         <v>1275</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D243" s="1">
         <v>6</v>
@@ -6986,10 +6989,10 @@
         <v>1</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>1275</v>
       </c>
@@ -6997,22 +7000,22 @@
         <v>1278</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F244" s="1">
         <v>0</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>1278</v>
       </c>
@@ -7020,13 +7023,13 @@
         <v>1284</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F245" s="1">
         <v>2</v>
@@ -7035,7 +7038,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>1284</v>
       </c>
@@ -7043,13 +7046,13 @@
         <v>1290</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D246" s="1">
         <v>5</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F246" s="1">
         <v>1</v>
@@ -7058,7 +7061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>1290</v>
       </c>
@@ -7066,22 +7069,22 @@
         <v>1296</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D247" s="1">
         <v>7</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F247" s="1">
         <v>2</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>1296</v>
       </c>
@@ -7089,7 +7092,7 @@
         <v>1302</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -7101,10 +7104,10 @@
         <v>1</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>1302</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>1314</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D249" s="1">
         <v>-2</v>
@@ -7124,10 +7127,10 @@
         <v>1</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>1314</v>
       </c>
@@ -7135,22 +7138,22 @@
         <v>1326</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D250" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="F250" s="1">
+        <v>1</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F250" s="1">
-        <v>1</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>1326</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>1329</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D251" s="1">
         <v>4</v>
@@ -7170,10 +7173,10 @@
         <v>1</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>1329</v>
       </c>
@@ -7181,7 +7184,7 @@
         <v>1332</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D252" s="1">
         <v>5</v>
@@ -7193,10 +7196,10 @@
         <v>1</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>1332</v>
       </c>
@@ -7204,7 +7207,7 @@
         <v>1335</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D253" s="1">
         <v>6</v>
@@ -7216,10 +7219,10 @@
         <v>1</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>1335</v>
       </c>
@@ -7227,22 +7230,22 @@
         <v>1338</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D254" s="1">
         <v>5</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F254" s="1">
         <v>2</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>1338</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>1339.5</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D255" s="1">
         <v>1</v>
@@ -7262,10 +7265,10 @@
         <v>1</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>1339.5</v>
       </c>
@@ -7273,22 +7276,22 @@
         <v>1341</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D256" s="1">
         <v>2</v>
       </c>
       <c r="E256" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F256" s="1">
+        <v>1</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F256" s="1">
-        <v>1</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>1341</v>
       </c>
@@ -7296,22 +7299,22 @@
         <v>1342.5</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D257" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="F257" s="1">
+        <v>1</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F257" s="1">
-        <v>1</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>1342.5</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>1344</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D258" s="1">
         <v>4</v>
@@ -7331,10 +7334,10 @@
         <v>1</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>1344</v>
       </c>
@@ -7342,7 +7345,7 @@
         <v>1345.5</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D259" s="1">
         <v>5</v>
@@ -7354,10 +7357,10 @@
         <v>1</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>1345.5</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>1347</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -7377,10 +7380,10 @@
         <v>0</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>1347</v>
       </c>
@@ -7388,22 +7391,22 @@
         <v>1348.5</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D261" s="1">
         <v>7</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F261" s="1">
         <v>1</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>1348.5</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>1350</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -7423,10 +7426,10 @@
         <v>1</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>1350</v>
       </c>
@@ -7434,22 +7437,22 @@
         <v>1351.5</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D263" s="1">
         <v>2</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F263" s="1">
+        <v>1</v>
+      </c>
+      <c r="G263" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F263" s="1">
-        <v>1</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1351.5</v>
       </c>
@@ -7457,22 +7460,22 @@
         <v>1353</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D264" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="F264" s="1">
+        <v>1</v>
+      </c>
+      <c r="G264" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F264" s="1">
-        <v>1</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>1353</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>1368</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D265" s="1">
         <v>4</v>
@@ -7492,10 +7495,10 @@
         <v>1</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>1368</v>
       </c>
@@ -7503,22 +7506,22 @@
         <v>1380</v>
       </c>
       <c r="C266" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F266" s="1">
+        <v>1</v>
+      </c>
+      <c r="G266" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F266" s="1">
-        <v>1</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>1380</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>1392</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
@@ -7538,10 +7541,10 @@
         <v>2</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>1392</v>
       </c>
@@ -7549,22 +7552,22 @@
         <v>1425</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D268" s="1">
         <v>5</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F268" s="1">
         <v>0</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>1425</v>
       </c>
@@ -7572,22 +7575,22 @@
         <v>1426.5</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D269" s="1">
         <v>7</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F269" s="1">
         <v>3</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>1426.5</v>
       </c>
@@ -7595,22 +7598,22 @@
         <v>1428</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D270" s="1">
         <v>5</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F270" s="1">
         <v>0</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>1428</v>
       </c>
@@ -7618,22 +7621,22 @@
         <v>1437</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D271" s="1">
         <v>1</v>
       </c>
       <c r="E271" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0</v>
+      </c>
+      <c r="G271" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F271" s="1">
-        <v>0</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>1437</v>
       </c>
@@ -7641,22 +7644,22 @@
         <v>1440</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D272" s="1">
         <v>5</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F272" s="1">
         <v>3</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>1440</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>1449</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D273" s="1">
         <v>1</v>
@@ -7676,10 +7679,10 @@
         <v>1</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>1449</v>
       </c>
@@ -7687,22 +7690,22 @@
         <v>1452</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D274" s="1">
         <v>5</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F274" s="1">
         <v>3</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>1452</v>
       </c>
@@ -7710,22 +7713,22 @@
         <v>1458</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F275" s="1">
         <v>0</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>1458</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>1464</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D276" s="1">
         <v>4</v>
@@ -7745,10 +7748,10 @@
         <v>1</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>1464</v>
       </c>
@@ -7756,7 +7759,7 @@
         <v>1467</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D277" s="1">
         <v>1</v>
@@ -7768,10 +7771,10 @@
         <v>2</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>1467</v>
       </c>
@@ -7779,22 +7782,22 @@
         <v>1470</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D278" s="1">
         <v>5</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F278" s="1">
         <v>0</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>1470</v>
       </c>
@@ -7802,22 +7805,22 @@
         <v>1476</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F279" s="1">
         <v>0</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>1476</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>1482</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D280" s="1">
         <v>4</v>
@@ -7837,10 +7840,10 @@
         <v>1</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>1482</v>
       </c>
@@ -7848,7 +7851,7 @@
         <v>1485</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D281" s="1">
         <v>1</v>
@@ -7860,10 +7863,10 @@
         <v>2</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>1485</v>
       </c>
@@ -7871,22 +7874,22 @@
         <v>1488</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D282" s="1">
         <v>5</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F282" s="1">
         <v>0</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>1488</v>
       </c>
@@ -7894,22 +7897,22 @@
         <v>1491</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D283" s="1">
         <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F283" s="1">
+        <v>0</v>
+      </c>
+      <c r="G283" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F283" s="1">
-        <v>0</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>1491</v>
       </c>
@@ -7917,7 +7920,7 @@
         <v>1494</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D284" s="1">
         <v>5</v>
@@ -7929,10 +7932,10 @@
         <v>1</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>1494</v>
       </c>
@@ -7940,22 +7943,22 @@
         <v>1497</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F285" s="1">
-        <v>0</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>1497</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>1500</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D286" s="1">
         <v>5</v>
@@ -7975,10 +7978,10 @@
         <v>1</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>1500</v>
       </c>
@@ -7986,22 +7989,22 @@
         <v>1501.5</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D287" s="1">
         <v>1</v>
       </c>
       <c r="E287" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F287" s="1">
+        <v>0</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F287" s="1">
-        <v>0</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>1501.5</v>
       </c>
@@ -8009,22 +8012,22 @@
         <v>1503</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D288" s="1">
         <v>2</v>
       </c>
       <c r="E288" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F288" s="1">
+        <v>1</v>
+      </c>
+      <c r="G288" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F288" s="1">
-        <v>1</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>1503</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>1504.5</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D289" s="1">
         <v>1</v>
@@ -8044,10 +8047,10 @@
         <v>2</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>1504.5</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>1506</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D290" s="1">
         <v>5</v>
@@ -8067,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>1506</v>
       </c>
@@ -8078,22 +8081,22 @@
         <v>1509</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D291" s="1">
         <v>1</v>
       </c>
       <c r="E291" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
+      <c r="G291" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F291" s="1">
-        <v>0</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>1509</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>1512</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D292" s="1">
         <v>5</v>
@@ -8113,10 +8116,10 @@
         <v>1</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>1512</v>
       </c>
@@ -8124,22 +8127,22 @@
         <v>1515</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D293" s="1">
         <v>1</v>
       </c>
       <c r="E293" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0</v>
+      </c>
+      <c r="G293" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F293" s="1">
-        <v>0</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>1515</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>1518</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D294" s="1">
         <v>5</v>
@@ -8159,10 +8162,10 @@
         <v>1</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>1518</v>
       </c>
@@ -8170,22 +8173,22 @@
         <v>1519.5</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D295" s="1">
         <v>1</v>
       </c>
       <c r="E295" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0</v>
+      </c>
+      <c r="G295" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F295" s="1">
-        <v>0</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>1519.5</v>
       </c>
@@ -8193,22 +8196,22 @@
         <v>1521</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D296" s="1">
         <v>2</v>
       </c>
       <c r="E296" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F296" s="1">
+        <v>1</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F296" s="1">
-        <v>1</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>1521</v>
       </c>
@@ -8216,7 +8219,7 @@
         <v>1522.5</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D297" s="1">
         <v>1</v>
@@ -8228,10 +8231,10 @@
         <v>2</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>1522.5</v>
       </c>
@@ -8239,22 +8242,22 @@
         <v>1524</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D298" s="1">
         <v>5</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F298" s="1">
         <v>3</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>1524</v>
       </c>
@@ -8262,22 +8265,22 @@
         <v>1525.5</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D299" s="1">
         <v>1</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F299" s="1">
         <v>1</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>1525.5</v>
       </c>
@@ -8285,22 +8288,22 @@
         <v>1527</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D300" s="1">
         <v>2</v>
       </c>
       <c r="E300" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F300" s="1">
+        <v>1</v>
+      </c>
+      <c r="G300" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F300" s="1">
-        <v>1</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>1527</v>
       </c>
@@ -8308,7 +8311,7 @@
         <v>1528.5</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D301" s="1">
         <v>1</v>
@@ -8320,10 +8323,10 @@
         <v>2</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>1528.5</v>
       </c>
@@ -8331,22 +8334,22 @@
         <v>1530</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D302" s="1">
         <v>5</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F302" s="1">
         <v>3</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>1530</v>
       </c>
@@ -8354,22 +8357,22 @@
         <v>1531.5</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D303" s="1">
         <v>1</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F303" s="1">
         <v>1</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>1531.5</v>
       </c>
@@ -8377,22 +8380,22 @@
         <v>1533</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D304" s="1">
         <v>2</v>
       </c>
       <c r="E304" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F304" s="1">
+        <v>1</v>
+      </c>
+      <c r="G304" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F304" s="1">
-        <v>1</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>1533</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>1534.5</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D305" s="1">
         <v>1</v>
@@ -8412,10 +8415,10 @@
         <v>2</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>1534.5</v>
       </c>
@@ -8423,22 +8426,22 @@
         <v>1536</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D306" s="1">
         <v>5</v>
       </c>
       <c r="E306" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F306" s="1">
+        <v>0</v>
+      </c>
+      <c r="G306" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F306" s="1">
-        <v>0</v>
-      </c>
-      <c r="G306" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>1536</v>
       </c>
@@ -8446,19 +8449,19 @@
         <v>1572</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D307" s="1">
         <v>1</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F307" s="1">
         <v>0</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
